--- a/capiq_data/in_process_data/IQ32624297.xlsx
+++ b/capiq_data/in_process_data/IQ32624297.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C72AB3E-E04D-43CA-9410-35D82B78EAEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5680C4FB-BBA0-4D46-A673-314816293B24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"d362a63c-9cad-496f-b883-c10a9535df7d"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"a461685a-909c-40b1-914d-54e5f0c63b68"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$59</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$59</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$59</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$59</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$59</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$59</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$59</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$59</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$59</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$59</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$59</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$59</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$59</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$59</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$59</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$59</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$59</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$59</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$59</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$59</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$59</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$59</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$59</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$59</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$59</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$59</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$59</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,57 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,31 +784,31 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>38717</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>31.376999999999999</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="D2">
-        <v>117.39100000000001</v>
+        <v>54.250999999999998</v>
       </c>
       <c r="E2">
-        <v>45.561</v>
+        <v>21.722000000000001</v>
       </c>
       <c r="F2">
-        <v>107.681</v>
+        <v>49.133000000000003</v>
       </c>
       <c r="G2">
-        <v>109.934</v>
+        <v>97.47</v>
       </c>
       <c r="H2">
-        <v>254.11199999999999</v>
+        <v>202.185</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>26.675999999999998</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -772,37 +823,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>48.816000000000003</v>
+        <v>37.558999999999997</v>
       </c>
       <c r="O2">
-        <v>78.238</v>
+        <v>61.277000000000001</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>-269.14699999999999</v>
+        <v>9.9440000000000008</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>38717</v>
       </c>
       <c r="S2">
-        <v>581</v>
+        <v>673</v>
       </c>
       <c r="T2">
-        <v>175.874</v>
+        <v>140.90799999999999</v>
       </c>
       <c r="U2">
-        <v>53.789000000000001</v>
+        <v>65.08</v>
       </c>
       <c r="V2">
-        <v>50.109000000000002</v>
+        <v>14.018000000000001</v>
       </c>
       <c r="W2">
-        <v>-9.2289999999999992</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-309.75099999999998</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,36 +862,36 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>31.376999999999999</v>
+        <v>0.29399999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>38807</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>32.871000000000002</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>124.042</v>
+        <v>59.161000000000001</v>
       </c>
       <c r="E3">
-        <v>55.563000000000002</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>112.896</v>
+        <v>8.3420000000000005</v>
       </c>
       <c r="G3">
-        <v>179.01499999999999</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>320.82</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.306</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -855,37 +906,37 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>85.536000000000001</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>117.85599999999999</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>61.9</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>38807</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>202.964</v>
+        <v>140.90799999999999</v>
       </c>
       <c r="U3">
-        <v>115.68899999999999</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>78.224000000000004</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>-9.2279999999999998</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-9.2279999999999998</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,36 +945,36 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>32.871000000000002</v>
+        <v>5.0069999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>39172</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>33.401000000000003</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>120.29</v>
+        <v>77.843999999999994</v>
       </c>
       <c r="E4">
-        <v>53.052</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>109.917</v>
+        <v>30.286999999999999</v>
       </c>
       <c r="G4">
-        <v>177.55</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>319.42200000000003</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2.0739999999999998</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -938,37 +989,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>60.920999999999999</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>92.128</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>-9.1440000000000001</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>39172</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>227.29400000000001</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>106.545</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>14.34</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>-9.2279999999999998</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-12.303000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,36 +1028,36 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>33.401000000000003</v>
+        <v>17.565000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>39263</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>41.326999999999998</v>
+        <v>18.683</v>
       </c>
       <c r="D5">
-        <v>143.60400000000001</v>
+        <v>84.619</v>
       </c>
       <c r="E5">
-        <v>53.012</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>129.648</v>
+        <v>77.268000000000001</v>
       </c>
       <c r="G5">
-        <v>207.31899999999999</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>344.64299999999997</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.228</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1021,75 +1072,75 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>65.146000000000001</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>98.941999999999993</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>40.674999999999997</v>
+        <v>22.795000000000002</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>39263</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>245.70099999999999</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>147.22</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>71.733000000000004</v>
+        <v>14.528</v>
       </c>
       <c r="W5">
-        <v>-11.02</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-25.907</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA5">
-        <v>41.326999999999998</v>
+        <v>18.683</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>39355</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>31.806999999999999</v>
+        <v>23.46</v>
       </c>
       <c r="D6">
-        <v>120.209</v>
+        <v>94.918999999999997</v>
       </c>
       <c r="E6">
-        <v>42.773000000000003</v>
+        <v>28.802</v>
       </c>
       <c r="F6">
-        <v>107.86199999999999</v>
+        <v>87.133499999999998</v>
       </c>
       <c r="G6">
-        <v>189.68199999999999</v>
+        <v>228.584</v>
       </c>
       <c r="H6">
-        <v>327.86799999999999</v>
+        <v>341.69499999999999</v>
       </c>
       <c r="I6">
-        <v>1.877</v>
+        <v>35.414000000000001</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1104,75 +1155,75 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>52.286999999999999</v>
+        <v>54.621000000000002</v>
       </c>
       <c r="O6">
-        <v>91.597999999999999</v>
+        <v>75.328000000000003</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>-12.284000000000001</v>
+        <v>24.954499999999999</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>39355</v>
       </c>
       <c r="S6">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>236.27</v>
+        <v>266.36700000000002</v>
       </c>
       <c r="U6">
-        <v>134.93600000000001</v>
+        <v>181.42500000000001</v>
       </c>
       <c r="V6">
-        <v>38.832000000000001</v>
+        <v>32.798499999999997</v>
       </c>
       <c r="W6">
-        <v>-10.896000000000001</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-44.262999999999998</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-1.25</v>
+        <v>0.09</v>
       </c>
       <c r="AA6">
-        <v>31.806999999999999</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>39447</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>33.417000000000002</v>
+        <v>23.46</v>
       </c>
       <c r="D7">
-        <v>121.392</v>
+        <v>86.888000000000005</v>
       </c>
       <c r="E7">
-        <v>57.859000000000002</v>
+        <v>28.802</v>
       </c>
       <c r="F7">
-        <v>110.20099999999999</v>
+        <v>79.102500000000006</v>
       </c>
       <c r="G7">
-        <v>214.874</v>
+        <v>228.584</v>
       </c>
       <c r="H7">
-        <v>353.44099999999997</v>
+        <v>341.69499999999999</v>
       </c>
       <c r="I7">
-        <v>2.6150000000000002</v>
+        <v>35.414000000000001</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1187,75 +1238,75 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>82.638999999999996</v>
+        <v>54.621000000000002</v>
       </c>
       <c r="O7">
-        <v>122.239</v>
+        <v>75.328000000000003</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.693</v>
+        <v>24.954499999999999</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>39447</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>231.202</v>
+        <v>266.36700000000002</v>
       </c>
       <c r="U7">
-        <v>148.62899999999999</v>
+        <v>181.42500000000001</v>
       </c>
       <c r="V7">
-        <v>63.343000000000004</v>
+        <v>32.798499999999997</v>
       </c>
       <c r="W7">
-        <v>-10.744999999999999</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-41.387</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-0.39400000000000002</v>
+        <v>0.09</v>
       </c>
       <c r="AA7">
-        <v>33.417000000000002</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>39538</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>38.496000000000002</v>
+        <v>28.005500000000001</v>
       </c>
       <c r="D8">
-        <v>132.54900000000001</v>
+        <v>100.94499999999999</v>
       </c>
       <c r="E8">
-        <v>55.956000000000003</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>120.548</v>
+        <v>92.828500000000005</v>
       </c>
       <c r="G8">
-        <v>201.947</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>343.80599999999998</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>3.665</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1270,75 +1321,75 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>63.908000000000001</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>103.899</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>-21.492000000000001</v>
+        <v>29.089500000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>39538</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>239.90700000000001</v>
+        <v>266.36700000000002</v>
       </c>
       <c r="U8">
-        <v>127.137</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>23.390999999999998</v>
+        <v>41.642000000000003</v>
       </c>
       <c r="W8">
-        <v>-10.603</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-32.832000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-0.42799999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AA8">
-        <v>38.496000000000002</v>
+        <v>28.005500000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>39629</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>45.758000000000003</v>
+        <v>28.005500000000001</v>
       </c>
       <c r="D9">
-        <v>128.31899999999999</v>
+        <v>100.94499999999999</v>
       </c>
       <c r="E9">
-        <v>53.835000000000001</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>117.015</v>
+        <v>92.828500000000005</v>
       </c>
       <c r="G9">
-        <v>238.44800000000001</v>
+        <v>304.27600000000001</v>
       </c>
       <c r="H9">
-        <v>377.52600000000001</v>
+        <v>419.19400000000002</v>
       </c>
       <c r="I9">
-        <v>2.0840000000000001</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1353,75 +1404,75 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>56.088999999999999</v>
+        <v>76.620999999999995</v>
       </c>
       <c r="O9">
-        <v>102.005</v>
+        <v>96.816000000000003</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>33.143999999999998</v>
+        <v>29.089500000000001</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>39629</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>275.52100000000002</v>
+        <v>322.37799999999999</v>
       </c>
       <c r="U9">
-        <v>160.28100000000001</v>
+        <v>239.60400000000001</v>
       </c>
       <c r="V9">
-        <v>54.134</v>
+        <v>41.642000000000003</v>
       </c>
       <c r="W9">
-        <v>-13.241</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-13.241</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-0.41199999999999998</v>
+        <v>0.75</v>
       </c>
       <c r="AA9">
-        <v>45.758000000000003</v>
+        <v>28.005500000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>39721</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>39.723999999999997</v>
+        <v>36.686</v>
       </c>
       <c r="D10">
-        <v>130.077</v>
+        <v>117.872</v>
       </c>
       <c r="E10">
-        <v>50.881999999999998</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>118.438</v>
+        <v>108.224</v>
       </c>
       <c r="G10">
-        <v>202.90899999999999</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>338.858</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.73499999999999999</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1436,75 +1487,75 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>52.15</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>99.736000000000004</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>-24.684000000000001</v>
+        <v>26.265000000000001</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>39721</v>
       </c>
       <c r="S10">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>239.12200000000001</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>135.59700000000001</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>59.667000000000002</v>
+        <v>44.695</v>
       </c>
       <c r="W10">
-        <v>-13.239000000000001</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-79.436999999999998</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-1.677</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>39.723999999999997</v>
+        <v>36.686</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>39813</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>42.372999999999998</v>
+        <v>22.591000000000001</v>
       </c>
       <c r="D11">
-        <v>142.70500000000001</v>
+        <v>97.021000000000001</v>
       </c>
       <c r="E11">
-        <v>57.387</v>
+        <v>29.478000000000002</v>
       </c>
       <c r="F11">
-        <v>129.536</v>
+        <v>87.659000000000006</v>
       </c>
       <c r="G11">
-        <v>275.42399999999998</v>
+        <v>361.22500000000002</v>
       </c>
       <c r="H11">
-        <v>409.625</v>
+        <v>496.13900000000001</v>
       </c>
       <c r="I11">
-        <v>3.12</v>
+        <v>20.614000000000001</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1519,75 +1570,75 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>85.751999999999995</v>
+        <v>90.927999999999997</v>
       </c>
       <c r="O11">
-        <v>134.899</v>
+        <v>114.479</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>74.888999999999996</v>
+        <v>15.554</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>39813</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="T11">
-        <v>274.726</v>
+        <v>381.66</v>
       </c>
       <c r="U11">
-        <v>210.48599999999999</v>
+        <v>281.423</v>
       </c>
       <c r="V11">
-        <v>95.296999999999997</v>
+        <v>36.966000000000001</v>
       </c>
       <c r="W11">
-        <v>-13.297000000000001</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-13.3</v>
+        <v>-0.82799999999999996</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-0.67600000000000005</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>42.372999999999998</v>
+        <v>22.591000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>39903</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>46.16</v>
+        <v>24.277999999999999</v>
       </c>
       <c r="D12">
-        <v>150.77199999999999</v>
+        <v>98.066999999999993</v>
       </c>
       <c r="E12">
-        <v>64.671000000000006</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>136.25399999999999</v>
+        <v>90.096000000000004</v>
       </c>
       <c r="G12">
-        <v>296.67599999999999</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>429.86200000000002</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>3.7090000000000001</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1602,75 +1653,75 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>70.271000000000001</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>119.956</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>-2.72</v>
+        <v>36.331000000000003</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>39903</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>309.90600000000001</v>
+        <v>381.66</v>
       </c>
       <c r="U12">
-        <v>207.76599999999999</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>21.562999999999999</v>
+        <v>49.72</v>
       </c>
       <c r="W12">
-        <v>-13.307</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-17.207000000000001</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-0.44400000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="AA12">
-        <v>46.161000000000001</v>
+        <v>24.277999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>39994</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>41.356000000000002</v>
+        <v>28.109000000000002</v>
       </c>
       <c r="D13">
-        <v>136.74299999999999</v>
+        <v>108.985</v>
       </c>
       <c r="E13">
-        <v>58.843000000000004</v>
+        <v>32.51</v>
       </c>
       <c r="F13">
-        <v>122.899</v>
+        <v>101.175</v>
       </c>
       <c r="G13">
-        <v>308.92899999999997</v>
+        <v>416.43</v>
       </c>
       <c r="H13">
-        <v>441.15</v>
+        <v>553.11800000000005</v>
       </c>
       <c r="I13">
-        <v>1.911</v>
+        <v>35.268999999999998</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1685,75 +1736,75 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>65.397000000000006</v>
+        <v>95.885999999999996</v>
       </c>
       <c r="O13">
-        <v>115.751</v>
+        <v>118.974</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18.611999999999998</v>
+        <v>22.175000000000001</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>39994</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="T13">
-        <v>325.399</v>
+        <v>434.14400000000001</v>
       </c>
       <c r="U13">
-        <v>226.37799999999999</v>
+        <v>339.92899999999997</v>
       </c>
       <c r="V13">
-        <v>55.503999999999998</v>
+        <v>28.652999999999999</v>
       </c>
       <c r="W13">
-        <v>-15.945</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-29.798999999999999</v>
+        <v>-0.02</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-0.39800000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>41.356000000000002</v>
+        <v>28.109000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>40086</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>46.11</v>
+        <v>19.16</v>
       </c>
       <c r="D14">
-        <v>141.83000000000001</v>
+        <v>98.198999999999998</v>
       </c>
       <c r="E14">
-        <v>58.756999999999998</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>126.785</v>
+        <v>90.186999999999998</v>
       </c>
       <c r="G14">
-        <v>308.86099999999999</v>
+        <v>426.50900000000001</v>
       </c>
       <c r="H14">
-        <v>441.589</v>
+        <v>564.37800000000004</v>
       </c>
       <c r="I14">
-        <v>4.2190000000000003</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1768,75 +1819,75 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>107.458</v>
+        <v>87.231999999999999</v>
       </c>
       <c r="O14">
-        <v>157.072</v>
+        <v>111.065</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>-5.0369999999999999</v>
+        <v>9.0090000000000003</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>40086</v>
       </c>
       <c r="S14">
-        <v>650</v>
+        <v>596</v>
       </c>
       <c r="T14">
-        <v>284.517</v>
+        <v>453.31299999999999</v>
       </c>
       <c r="U14">
-        <v>221.34100000000001</v>
+        <v>348.93799999999999</v>
       </c>
       <c r="V14">
-        <v>52.015999999999998</v>
+        <v>17.943999999999999</v>
       </c>
       <c r="W14">
-        <v>-15.82</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>-47.133000000000003</v>
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-1.014</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>46.11</v>
+        <v>19.16</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>40178</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>49.024000000000001</v>
+        <v>34.904000000000003</v>
       </c>
       <c r="D15">
-        <v>157.88499999999999</v>
+        <v>120.833</v>
       </c>
       <c r="E15">
-        <v>68.031999999999996</v>
+        <v>39.408000000000001</v>
       </c>
       <c r="F15">
-        <v>141.983</v>
+        <v>111.547</v>
       </c>
       <c r="G15">
-        <v>276.02199999999999</v>
+        <v>433.06299999999999</v>
       </c>
       <c r="H15">
-        <v>412.84399999999999</v>
+        <v>571.94799999999998</v>
       </c>
       <c r="I15">
-        <v>2.8159999999999998</v>
+        <v>2.8610000000000002</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1851,75 +1902,75 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>74.456999999999994</v>
+        <v>358.73500000000001</v>
       </c>
       <c r="O15">
-        <v>126.164</v>
+        <v>383.81400000000002</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>-22.276</v>
+        <v>34.792000000000002</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>40178</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="T15">
-        <v>286.68</v>
+        <v>188.13399999999999</v>
       </c>
       <c r="U15">
-        <v>199.065</v>
+        <v>383.73</v>
       </c>
       <c r="V15">
-        <v>88.316000000000003</v>
+        <v>16.449000000000002</v>
       </c>
       <c r="W15">
-        <v>-15.727</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-97.92</v>
+        <v>-0.02</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>49.024000000000001</v>
+        <v>34.904000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>40268</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>42.981000000000002</v>
+        <v>22.675999999999998</v>
       </c>
       <c r="D16">
-        <v>143.94200000000001</v>
+        <v>101.081</v>
       </c>
       <c r="E16">
-        <v>64.450999999999993</v>
+        <v>46.28</v>
       </c>
       <c r="F16">
-        <v>129.23500000000001</v>
+        <v>90.183000000000007</v>
       </c>
       <c r="G16">
-        <v>243.935</v>
+        <v>495.50799999999998</v>
       </c>
       <c r="H16">
-        <v>385.78100000000001</v>
+        <v>632.52700000000004</v>
       </c>
       <c r="I16">
-        <v>4.1440000000000001</v>
+        <v>11.609</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1934,75 +1985,75 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>69.028999999999996</v>
+        <v>398.29599999999999</v>
       </c>
       <c r="O16">
-        <v>121.89</v>
+        <v>421.70299999999997</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>-53.954000000000001</v>
+        <v>55.767000000000003</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>40268</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="T16">
-        <v>263.89100000000002</v>
+        <v>210.82400000000001</v>
       </c>
       <c r="U16">
-        <v>145.11099999999999</v>
+        <v>439.49700000000001</v>
       </c>
       <c r="V16">
-        <v>32.92</v>
+        <v>62.332000000000001</v>
       </c>
       <c r="W16">
-        <v>-15.58</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-70.25</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-0.47299999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>42.981000000000002</v>
+        <v>22.675999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>40359</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>48.366999999999997</v>
+        <v>24.89</v>
       </c>
       <c r="D17">
-        <v>148.91</v>
+        <v>112.61799999999999</v>
       </c>
       <c r="E17">
-        <v>65.671000000000006</v>
+        <v>41.401000000000003</v>
       </c>
       <c r="F17">
-        <v>132.67500000000001</v>
+        <v>101.099</v>
       </c>
       <c r="G17">
-        <v>222.726</v>
+        <v>378.48200000000003</v>
       </c>
       <c r="H17">
-        <v>367.08600000000001</v>
+        <v>523.66600000000005</v>
       </c>
       <c r="I17">
-        <v>1.899</v>
+        <v>14.256</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2017,75 +2068,75 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>68.283000000000001</v>
+        <v>77.915999999999997</v>
       </c>
       <c r="O17">
-        <v>121.962</v>
+        <v>99.320999999999998</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>-18.591999999999999</v>
+        <v>-115.431</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>40359</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>245.124</v>
+        <v>424.34500000000003</v>
       </c>
       <c r="U17">
-        <v>126.51900000000001</v>
+        <v>324.06599999999997</v>
       </c>
       <c r="V17">
-        <v>62.83</v>
+        <v>8.9469999999999992</v>
       </c>
       <c r="W17">
-        <v>-17.914000000000001</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-69.248000000000005</v>
+        <v>-112.179</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-0.52600000000000002</v>
+        <v>-7.9889999999999999</v>
       </c>
       <c r="AA17">
-        <v>48.366</v>
+        <v>24.89</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>40451</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>49.341999999999999</v>
+        <v>20.452999999999999</v>
       </c>
       <c r="D18">
-        <v>166.488</v>
+        <v>106.015</v>
       </c>
       <c r="E18">
-        <v>69.082999999999998</v>
+        <v>43.78</v>
       </c>
       <c r="F18">
-        <v>147.22200000000001</v>
+        <v>96.789000000000001</v>
       </c>
       <c r="G18">
-        <v>244.107</v>
+        <v>387.10500000000002</v>
       </c>
       <c r="H18">
-        <v>383.90100000000001</v>
+        <v>530.62400000000002</v>
       </c>
       <c r="I18">
-        <v>2.7789999999999999</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2100,75 +2151,75 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>73.665000000000006</v>
+        <v>54.726999999999997</v>
       </c>
       <c r="O18">
-        <v>133.834</v>
+        <v>81.481999999999999</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>21.408000000000001</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>40451</v>
       </c>
       <c r="S18">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>250.06700000000001</v>
+        <v>449.142</v>
       </c>
       <c r="U18">
-        <v>147.92699999999999</v>
+        <v>322.93599999999998</v>
       </c>
       <c r="V18">
-        <v>78.590999999999994</v>
+        <v>13.525</v>
       </c>
       <c r="W18">
-        <v>-17.777999999999999</v>
+        <v>-10.432</v>
       </c>
       <c r="X18">
-        <v>-46.515000000000001</v>
+        <v>-10.377000000000001</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-0.48799999999999999</v>
+        <v>-1E-3</v>
       </c>
       <c r="AA18">
-        <v>49.341999999999999</v>
+        <v>20.454000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>40543</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>42.259</v>
+        <v>31.376999999999999</v>
       </c>
       <c r="D19">
-        <v>142.839</v>
+        <v>117.39100000000001</v>
       </c>
       <c r="E19">
-        <v>60.774999999999999</v>
+        <v>45.561</v>
       </c>
       <c r="F19">
-        <v>128.68899999999999</v>
+        <v>107.681</v>
       </c>
       <c r="G19">
-        <v>209.38499999999999</v>
+        <v>109.934</v>
       </c>
       <c r="H19">
-        <v>375.79700000000003</v>
+        <v>254.11199999999999</v>
       </c>
       <c r="I19">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2183,75 +2234,75 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>70.712000000000003</v>
+        <v>48.816000000000003</v>
       </c>
       <c r="O19">
-        <v>132.06200000000001</v>
+        <v>78.238</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>-10.369</v>
+        <v>-269.14699999999999</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>40543</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>581</v>
       </c>
       <c r="T19">
-        <v>243.73500000000001</v>
+        <v>175.874</v>
       </c>
       <c r="U19">
-        <v>137.55799999999999</v>
+        <v>53.789000000000001</v>
       </c>
       <c r="V19">
-        <v>78.454999999999998</v>
+        <v>50.109000000000002</v>
       </c>
       <c r="W19">
-        <v>-17.725000000000001</v>
+        <v>-9.2289999999999992</v>
       </c>
       <c r="X19">
-        <v>-51.064999999999998</v>
+        <v>-309.75099999999998</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-30.469000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>42.259</v>
+        <v>31.376999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>40633</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>44.845999999999997</v>
+        <v>32.871000000000002</v>
       </c>
       <c r="D20">
-        <v>148.72499999999999</v>
+        <v>124.042</v>
       </c>
       <c r="E20">
-        <v>71.033000000000001</v>
+        <v>55.563000000000002</v>
       </c>
       <c r="F20">
-        <v>131.97</v>
+        <v>112.896</v>
       </c>
       <c r="G20">
-        <v>194.619</v>
+        <v>179.01499999999999</v>
       </c>
       <c r="H20">
-        <v>362.10899999999998</v>
+        <v>320.82</v>
       </c>
       <c r="I20">
-        <v>4.883</v>
+        <v>1.306</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2266,75 +2317,75 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>72.463999999999999</v>
+        <v>85.536000000000001</v>
       </c>
       <c r="O20">
-        <v>135.09200000000001</v>
+        <v>117.85599999999999</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>-47.923999999999999</v>
+        <v>61.9</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>40633</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>227.017</v>
+        <v>202.964</v>
       </c>
       <c r="U20">
-        <v>89.634</v>
+        <v>115.68899999999999</v>
       </c>
       <c r="V20">
-        <v>27.37</v>
+        <v>78.224000000000004</v>
       </c>
       <c r="W20">
-        <v>-17.562999999999999</v>
+        <v>-9.2279999999999998</v>
       </c>
       <c r="X20">
-        <v>-64.727999999999994</v>
+        <v>-9.2279999999999998</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-0.46600000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>44.844999999999999</v>
+        <v>32.871000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>40724</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>67.516000000000005</v>
+        <v>33.401000000000003</v>
       </c>
       <c r="D21">
-        <v>187.035</v>
+        <v>120.29</v>
       </c>
       <c r="E21">
-        <v>72.617999999999995</v>
+        <v>53.052</v>
       </c>
       <c r="F21">
-        <v>165.19499999999999</v>
+        <v>109.917</v>
       </c>
       <c r="G21">
-        <v>222.7</v>
+        <v>177.55</v>
       </c>
       <c r="H21">
-        <v>397.41899999999998</v>
+        <v>319.42200000000003</v>
       </c>
       <c r="I21">
-        <v>1.9430000000000001</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2349,75 +2400,75 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>78.662999999999997</v>
+        <v>60.920999999999999</v>
       </c>
       <c r="O21">
-        <v>137.602</v>
+        <v>92.128</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>32.043999999999997</v>
+        <v>-9.1440000000000001</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>40724</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>259.81700000000001</v>
+        <v>227.29400000000001</v>
       </c>
       <c r="U21">
-        <v>121.678</v>
+        <v>106.545</v>
       </c>
       <c r="V21">
-        <v>88.311999999999998</v>
+        <v>14.34</v>
       </c>
       <c r="W21">
-        <v>-19.125</v>
+        <v>-9.2279999999999998</v>
       </c>
       <c r="X21">
-        <v>-41.956000000000003</v>
+        <v>-12.303000000000001</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>1.6E-2</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>67.516000000000005</v>
+        <v>33.401000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>40816</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>50.402000000000001</v>
+        <v>41.326999999999998</v>
       </c>
       <c r="D22">
-        <v>155.946</v>
+        <v>143.60400000000001</v>
       </c>
       <c r="E22">
-        <v>68.216999999999999</v>
+        <v>53.012</v>
       </c>
       <c r="F22">
-        <v>138.11600000000001</v>
+        <v>129.648</v>
       </c>
       <c r="G22">
-        <v>204.11799999999999</v>
+        <v>207.31899999999999</v>
       </c>
       <c r="H22">
-        <v>384.78800000000001</v>
+        <v>344.64299999999997</v>
       </c>
       <c r="I22">
-        <v>1.762</v>
+        <v>1.228</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2432,75 +2483,75 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>73.997</v>
+        <v>65.146000000000001</v>
       </c>
       <c r="O22">
-        <v>125.143</v>
+        <v>98.941999999999993</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>-19.425000000000001</v>
+        <v>40.674999999999997</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>40816</v>
       </c>
       <c r="S22">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>259.64499999999998</v>
+        <v>245.70099999999999</v>
       </c>
       <c r="U22">
-        <v>102.253</v>
+        <v>147.22</v>
       </c>
       <c r="V22">
-        <v>51.140999999999998</v>
+        <v>71.733000000000004</v>
       </c>
       <c r="W22">
-        <v>-19.018000000000001</v>
+        <v>-11.02</v>
       </c>
       <c r="X22">
-        <v>-53.781999999999996</v>
+        <v>-25.907</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-4.4669999999999996</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>50.402000000000001</v>
+        <v>41.326999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>40908</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>49.4</v>
+        <v>31.806999999999999</v>
       </c>
       <c r="D23">
-        <v>170.5</v>
+        <v>120.209</v>
       </c>
       <c r="E23">
-        <v>64.188999999999993</v>
+        <v>42.773000000000003</v>
       </c>
       <c r="F23">
-        <v>143.1</v>
+        <v>107.86199999999999</v>
       </c>
       <c r="G23">
-        <v>184.691</v>
+        <v>189.68199999999999</v>
       </c>
       <c r="H23">
-        <v>394.83</v>
+        <v>327.86799999999999</v>
       </c>
       <c r="I23">
-        <v>4.1779999999999999</v>
+        <v>1.877</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2515,75 +2566,75 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>83.353999999999999</v>
+        <v>52.286999999999999</v>
       </c>
       <c r="O23">
-        <v>134.303</v>
+        <v>91.597999999999999</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>5.2</v>
+        <v>-12.284000000000001</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>40908</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="T23">
-        <v>260.52699999999999</v>
+        <v>236.27</v>
       </c>
       <c r="U23">
-        <v>107.482</v>
+        <v>134.93600000000001</v>
       </c>
       <c r="V23">
-        <v>97.4</v>
+        <v>38.832000000000001</v>
       </c>
       <c r="W23">
-        <v>-18.899999999999999</v>
+        <v>-10.896000000000001</v>
       </c>
       <c r="X23">
-        <v>-64.3</v>
+        <v>-44.262999999999998</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-4.7</v>
+        <v>-1.25</v>
       </c>
       <c r="AA23">
-        <v>49.4</v>
+        <v>31.806999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>40999</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>51.2</v>
+        <v>33.417000000000002</v>
       </c>
       <c r="D24">
-        <v>173.1</v>
+        <v>121.392</v>
       </c>
       <c r="E24">
-        <v>78.180999999999997</v>
+        <v>57.859000000000002</v>
       </c>
       <c r="F24">
-        <v>144.1</v>
+        <v>110.20099999999999</v>
       </c>
       <c r="G24">
-        <v>173.87200000000001</v>
+        <v>214.874</v>
       </c>
       <c r="H24">
-        <v>406.64400000000001</v>
+        <v>353.44099999999997</v>
       </c>
       <c r="I24">
-        <v>1.9390000000000001</v>
+        <v>2.6150000000000002</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2598,75 +2649,75 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>76.632000000000005</v>
+        <v>82.638999999999996</v>
       </c>
       <c r="O24">
-        <v>128.28100000000001</v>
+        <v>122.239</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>-55.3</v>
+        <v>13.693</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>40999</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>278.363</v>
+        <v>231.202</v>
       </c>
       <c r="U24">
-        <v>52.192999999999998</v>
+        <v>148.62899999999999</v>
       </c>
       <c r="V24">
-        <v>17.5</v>
+        <v>63.343000000000004</v>
       </c>
       <c r="W24">
-        <v>-18.8</v>
+        <v>-10.744999999999999</v>
       </c>
       <c r="X24">
-        <v>-36.799999999999997</v>
+        <v>-41.387</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-19.5</v>
+        <v>-0.39400000000000002</v>
       </c>
       <c r="AA24">
-        <v>51.2</v>
+        <v>33.417000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>41090</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>40.799999999999997</v>
+        <v>38.496000000000002</v>
       </c>
       <c r="D25">
-        <v>168.7</v>
+        <v>132.54900000000001</v>
       </c>
       <c r="E25">
-        <v>68.284000000000006</v>
+        <v>55.956000000000003</v>
       </c>
       <c r="F25">
-        <v>136.19999999999999</v>
+        <v>120.548</v>
       </c>
       <c r="G25">
-        <v>206.583</v>
+        <v>201.947</v>
       </c>
       <c r="H25">
-        <v>441.34199999999998</v>
+        <v>343.80599999999998</v>
       </c>
       <c r="I25">
-        <v>3.0870000000000002</v>
+        <v>3.665</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2681,75 +2732,75 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>81.122</v>
+        <v>63.908000000000001</v>
       </c>
       <c r="O25">
-        <v>139.17699999999999</v>
+        <v>103.899</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20.6</v>
+        <v>-21.492000000000001</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>41090</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>302.16500000000002</v>
+        <v>239.90700000000001</v>
       </c>
       <c r="U25">
-        <v>72.759</v>
+        <v>127.137</v>
       </c>
       <c r="V25">
-        <v>59.2</v>
+        <v>23.390999999999998</v>
       </c>
       <c r="W25">
-        <v>-20.399999999999999</v>
+        <v>-10.603</v>
       </c>
       <c r="X25">
-        <v>-25.2</v>
+        <v>-32.832000000000001</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-0.4</v>
+        <v>-0.42799999999999999</v>
       </c>
       <c r="AA25">
-        <v>40.799999999999997</v>
+        <v>38.496000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>41182</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>45.4</v>
+        <v>45.758000000000003</v>
       </c>
       <c r="D26">
-        <v>190.8</v>
+        <v>128.31899999999999</v>
       </c>
       <c r="E26">
-        <v>76.7</v>
+        <v>53.835000000000001</v>
       </c>
       <c r="F26">
-        <v>143</v>
+        <v>117.015</v>
       </c>
       <c r="G26">
-        <v>235.1</v>
+        <v>238.44800000000001</v>
       </c>
       <c r="H26">
-        <v>476.7</v>
+        <v>377.52600000000001</v>
       </c>
       <c r="I26">
-        <v>6.5</v>
+        <v>2.0840000000000001</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2764,78 +2815,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>89.9</v>
+        <v>56.088999999999999</v>
       </c>
       <c r="O26">
-        <v>146.19999999999999</v>
+        <v>102.005</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>24.5</v>
+        <v>33.143999999999998</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>41182</v>
       </c>
       <c r="S26">
-        <v>553</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>330.5</v>
+        <v>275.52100000000002</v>
       </c>
       <c r="U26">
-        <v>97.3</v>
+        <v>160.28100000000001</v>
       </c>
       <c r="V26">
-        <v>55.5</v>
+        <v>54.134</v>
       </c>
       <c r="W26">
-        <v>-20.399999999999999</v>
+        <v>-13.241</v>
       </c>
       <c r="X26">
-        <v>-23.9</v>
+        <v>-13.241</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0.9</v>
+        <v>-0.41199999999999998</v>
       </c>
       <c r="AA26">
-        <v>45.4</v>
+        <v>45.758000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>41274</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>15.5</v>
+        <v>39.723999999999997</v>
       </c>
       <c r="D27">
-        <v>356.2</v>
+        <v>130.077</v>
       </c>
       <c r="E27">
-        <v>233.3</v>
+        <v>50.881999999999998</v>
       </c>
       <c r="F27">
-        <v>193.4</v>
+        <v>118.438</v>
       </c>
       <c r="G27">
-        <v>455.7</v>
+        <v>202.90899999999999</v>
       </c>
       <c r="H27">
-        <v>5345.1</v>
+        <v>338.858</v>
       </c>
       <c r="I27">
-        <v>51.4</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="J27">
-        <v>1486.7</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2895,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>260.89999999999998</v>
+        <v>52.15</v>
       </c>
       <c r="O27">
-        <v>2587.1</v>
+        <v>99.736000000000004</v>
       </c>
       <c r="P27">
-        <v>1486.7</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>56</v>
+        <v>-24.684000000000001</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>41274</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="T27">
-        <v>2758</v>
+        <v>239.12200000000001</v>
       </c>
       <c r="U27">
-        <v>153.30000000000001</v>
+        <v>135.59700000000001</v>
       </c>
       <c r="V27">
-        <v>-17.7</v>
+        <v>59.667000000000002</v>
       </c>
       <c r="W27">
-        <v>-28.3</v>
+        <v>-13.239000000000001</v>
       </c>
       <c r="X27">
-        <v>1457.7</v>
+        <v>-79.436999999999998</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>24.7</v>
+        <v>-1.677</v>
       </c>
       <c r="AA27">
-        <v>15.5</v>
+        <v>39.723999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>41364</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>68.3</v>
+        <v>42.372999999999998</v>
       </c>
       <c r="D28">
-        <v>640.79999999999995</v>
+        <v>142.70500000000001</v>
       </c>
       <c r="E28">
-        <v>231.3</v>
+        <v>57.387</v>
       </c>
       <c r="F28">
-        <v>266.89999999999998</v>
+        <v>129.536</v>
       </c>
       <c r="G28">
-        <v>519.70000000000005</v>
+        <v>275.42399999999998</v>
       </c>
       <c r="H28">
-        <v>5395.6</v>
+        <v>409.625</v>
       </c>
       <c r="I28">
-        <v>54.9</v>
+        <v>3.12</v>
       </c>
       <c r="J28">
-        <v>1411.3</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +2981,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>376.3</v>
+        <v>85.751999999999995</v>
       </c>
       <c r="O28">
-        <v>2566.3000000000002</v>
+        <v>134.899</v>
       </c>
       <c r="P28">
-        <v>1411.3</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>-4.7</v>
+        <v>74.888999999999996</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>41364</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>2829.3</v>
+        <v>274.726</v>
       </c>
       <c r="U28">
-        <v>148.6</v>
+        <v>210.48599999999999</v>
       </c>
       <c r="V28">
-        <v>189.8</v>
+        <v>95.296999999999997</v>
       </c>
       <c r="W28">
-        <v>-28.4</v>
+        <v>-13.297000000000001</v>
       </c>
       <c r="X28">
-        <v>-111.2</v>
+        <v>-13.3</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-68.900000000000006</v>
+        <v>-0.67600000000000005</v>
       </c>
       <c r="AA28">
-        <v>68.3</v>
+        <v>42.372999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>41455</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>60.5</v>
+        <v>46.16</v>
       </c>
       <c r="D29">
-        <v>611.4</v>
+        <v>150.77199999999999</v>
       </c>
       <c r="E29">
-        <v>195.8</v>
+        <v>64.671000000000006</v>
       </c>
       <c r="F29">
-        <v>269.7</v>
+        <v>136.25399999999999</v>
       </c>
       <c r="G29">
-        <v>374.3</v>
+        <v>296.67599999999999</v>
       </c>
       <c r="H29">
-        <v>5228.1000000000004</v>
+        <v>429.86200000000002</v>
       </c>
       <c r="I29">
-        <v>38.9</v>
+        <v>3.7090000000000001</v>
       </c>
       <c r="J29">
-        <v>1312.4</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3064,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>238</v>
+        <v>70.271000000000001</v>
       </c>
       <c r="O29">
-        <v>2340.8000000000002</v>
+        <v>119.956</v>
       </c>
       <c r="P29">
-        <v>1312.4</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>-23.8</v>
+        <v>-2.72</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>41455</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>2887.3</v>
+        <v>309.90600000000001</v>
       </c>
       <c r="U29">
-        <v>124.8</v>
+        <v>207.76599999999999</v>
       </c>
       <c r="V29">
-        <v>6.8</v>
+        <v>21.562999999999999</v>
       </c>
       <c r="W29">
-        <v>-30.7</v>
+        <v>-13.307</v>
       </c>
       <c r="X29">
-        <v>-132.19999999999999</v>
+        <v>-17.207000000000001</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>106.1</v>
+        <v>-0.44400000000000001</v>
       </c>
       <c r="AA29">
-        <v>60.5</v>
+        <v>46.161000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>41547</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>257.39999999999998</v>
+        <v>41.356000000000002</v>
       </c>
       <c r="D30">
-        <v>620.70000000000005</v>
+        <v>136.74299999999999</v>
       </c>
       <c r="E30">
-        <v>217.3</v>
+        <v>58.843000000000004</v>
       </c>
       <c r="F30">
-        <v>265.60000000000002</v>
+        <v>122.899</v>
       </c>
       <c r="G30">
-        <v>434.7</v>
+        <v>308.92899999999997</v>
       </c>
       <c r="H30">
-        <v>5265.7</v>
+        <v>441.15</v>
       </c>
       <c r="I30">
-        <v>43.2</v>
+        <v>1.911</v>
       </c>
       <c r="J30">
-        <v>1237.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3147,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>334</v>
+        <v>65.397000000000006</v>
       </c>
       <c r="O30">
-        <v>2145.6999999999998</v>
+        <v>115.751</v>
       </c>
       <c r="P30">
-        <v>1237.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>18.7</v>
+        <v>18.611999999999998</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>41547</v>
       </c>
       <c r="S30">
-        <v>889</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>3120</v>
+        <v>325.399</v>
       </c>
       <c r="U30">
-        <v>143.5</v>
+        <v>226.37799999999999</v>
       </c>
       <c r="V30">
-        <v>195.5</v>
+        <v>55.503999999999998</v>
       </c>
       <c r="W30">
-        <v>-30.7</v>
+        <v>-15.945</v>
       </c>
       <c r="X30">
-        <v>-114.6</v>
+        <v>-29.798999999999999</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-46.8</v>
+        <v>-0.39800000000000002</v>
       </c>
       <c r="AA30">
-        <v>257.39999999999998</v>
+        <v>41.356000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>41639</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>118.4</v>
+        <v>46.11</v>
       </c>
       <c r="D31">
-        <v>777.7</v>
+        <v>141.83000000000001</v>
       </c>
       <c r="E31">
-        <v>268.39999999999998</v>
+        <v>58.756999999999998</v>
       </c>
       <c r="F31">
-        <v>328.5</v>
+        <v>126.785</v>
       </c>
       <c r="G31">
-        <v>512.29999999999995</v>
+        <v>308.86099999999999</v>
       </c>
       <c r="H31">
-        <v>5328.2</v>
+        <v>441.589</v>
       </c>
       <c r="I31">
-        <v>48.7</v>
+        <v>4.2190000000000003</v>
       </c>
       <c r="J31">
-        <v>1213.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3227,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-325</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>384.3</v>
+        <v>107.458</v>
       </c>
       <c r="O31">
-        <v>2143.6</v>
+        <v>157.072</v>
       </c>
       <c r="P31">
-        <v>1213.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>22.8</v>
+        <v>-5.0369999999999999</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>41639</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="T31">
-        <v>3184.6</v>
+        <v>284.517</v>
       </c>
       <c r="U31">
-        <v>166.3</v>
+        <v>221.34100000000001</v>
       </c>
       <c r="V31">
-        <v>163.5</v>
+        <v>52.015999999999998</v>
       </c>
       <c r="W31">
-        <v>-30.6</v>
+        <v>-15.82</v>
       </c>
       <c r="X31">
-        <v>-114.2</v>
+        <v>-47.133000000000003</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-18.100000000000001</v>
+        <v>-1.014</v>
       </c>
       <c r="AA31">
-        <v>118.4</v>
+        <v>46.11</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>41729</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>83.3</v>
+        <v>49.024000000000001</v>
       </c>
       <c r="D32">
-        <v>667.5</v>
+        <v>157.88499999999999</v>
       </c>
       <c r="E32">
-        <v>252.2</v>
+        <v>68.031999999999996</v>
       </c>
       <c r="F32">
-        <v>283.5</v>
+        <v>141.983</v>
       </c>
       <c r="G32">
-        <v>584</v>
+        <v>276.02199999999999</v>
       </c>
       <c r="H32">
-        <v>5316.9</v>
+        <v>412.84399999999999</v>
       </c>
       <c r="I32">
-        <v>11.1</v>
+        <v>2.8159999999999998</v>
       </c>
       <c r="J32">
-        <v>914.6</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3313,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>679.9</v>
+        <v>74.456999999999994</v>
       </c>
       <c r="O32">
-        <v>2157.9</v>
+        <v>126.164</v>
       </c>
       <c r="P32">
-        <v>1214.0999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>-26.3</v>
+        <v>-22.276</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>41729</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>3159</v>
+        <v>286.68</v>
       </c>
       <c r="U32">
-        <v>140</v>
+        <v>199.065</v>
       </c>
       <c r="V32">
-        <v>185.8</v>
+        <v>88.316000000000003</v>
       </c>
       <c r="W32">
-        <v>-30.4</v>
+        <v>-15.727</v>
       </c>
       <c r="X32">
-        <v>-135.6</v>
+        <v>-97.92</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-66.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AA32">
-        <v>83.3</v>
+        <v>49.024000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>41820</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>86</v>
+        <v>42.981000000000002</v>
       </c>
       <c r="D33">
-        <v>575.9</v>
+        <v>143.94200000000001</v>
       </c>
       <c r="E33">
-        <v>221.9</v>
+        <v>64.450999999999993</v>
       </c>
       <c r="F33">
-        <v>270.5</v>
+        <v>129.23500000000001</v>
       </c>
       <c r="G33">
-        <v>435.5</v>
+        <v>243.935</v>
       </c>
       <c r="H33">
-        <v>5119.5</v>
+        <v>385.78100000000001</v>
       </c>
       <c r="I33">
-        <v>6.3</v>
+        <v>4.1440000000000001</v>
       </c>
       <c r="J33">
-        <v>915.1</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3396,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>478.9</v>
+        <v>69.028999999999996</v>
       </c>
       <c r="O33">
-        <v>1958.2</v>
+        <v>121.89</v>
       </c>
       <c r="P33">
-        <v>1214.7</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>-3.2</v>
+        <v>-53.954000000000001</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>41820</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>3161.3</v>
+        <v>263.89100000000002</v>
       </c>
       <c r="U33">
-        <v>136.80000000000001</v>
+        <v>145.11099999999999</v>
       </c>
       <c r="V33">
-        <v>-41.2</v>
+        <v>32.92</v>
       </c>
       <c r="W33">
-        <v>-34.6</v>
+        <v>-15.58</v>
       </c>
       <c r="X33">
-        <v>-82.5</v>
+        <v>-70.25</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>130.5</v>
+        <v>-0.47299999999999998</v>
       </c>
       <c r="AA33">
-        <v>86</v>
+        <v>42.981000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>41912</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>138.80000000000001</v>
+        <v>48.366999999999997</v>
       </c>
       <c r="D34">
-        <v>747.7</v>
+        <v>148.91</v>
       </c>
       <c r="E34">
-        <v>287.3</v>
+        <v>65.671000000000006</v>
       </c>
       <c r="F34">
-        <v>334.4</v>
+        <v>132.67500000000001</v>
       </c>
       <c r="G34">
-        <v>683.7</v>
+        <v>222.726</v>
       </c>
       <c r="H34">
-        <v>5321</v>
+        <v>367.08600000000001</v>
       </c>
       <c r="I34">
-        <v>12.8</v>
+        <v>1.899</v>
       </c>
       <c r="J34">
-        <v>915.6</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3479,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>595.9</v>
+        <v>68.283000000000001</v>
       </c>
       <c r="O34">
-        <v>2070.6</v>
+        <v>121.962</v>
       </c>
       <c r="P34">
-        <v>1215.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>138.30000000000001</v>
+        <v>-18.591999999999999</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>41912</v>
       </c>
       <c r="S34">
-        <v>842</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>3250.4</v>
+        <v>245.124</v>
       </c>
       <c r="U34">
-        <v>275.10000000000002</v>
+        <v>126.51900000000001</v>
       </c>
       <c r="V34">
-        <v>226.6</v>
+        <v>62.83</v>
       </c>
       <c r="W34">
-        <v>-34.700000000000003</v>
+        <v>-17.914000000000001</v>
       </c>
       <c r="X34">
-        <v>-39.299999999999997</v>
+        <v>-69.248000000000005</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-35</v>
+        <v>-0.52600000000000002</v>
       </c>
       <c r="AA34">
-        <v>138.80000000000001</v>
+        <v>48.366</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>42004</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>95.4</v>
+        <v>49.341999999999999</v>
       </c>
       <c r="D35">
-        <v>601.5</v>
+        <v>166.488</v>
       </c>
       <c r="E35">
-        <v>251</v>
+        <v>69.082999999999998</v>
       </c>
       <c r="F35">
-        <v>279.39999999999998</v>
+        <v>147.22200000000001</v>
       </c>
       <c r="G35">
-        <v>683.2</v>
+        <v>244.107</v>
       </c>
       <c r="H35">
-        <v>5330.4</v>
+        <v>383.90100000000001</v>
       </c>
       <c r="I35">
-        <v>4.3</v>
+        <v>2.7789999999999999</v>
       </c>
       <c r="J35">
-        <v>916.1</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3511,78 +3562,78 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>511.4</v>
+        <v>73.665000000000006</v>
       </c>
       <c r="O35">
-        <v>2035.6</v>
+        <v>133.834</v>
       </c>
       <c r="P35">
-        <v>1275</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>71.099999999999994</v>
+        <v>21.408000000000001</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>42004</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="T35">
-        <v>3294.8</v>
+        <v>250.06700000000001</v>
       </c>
       <c r="U35">
-        <v>346.2</v>
+        <v>147.92699999999999</v>
       </c>
       <c r="V35">
-        <v>118</v>
+        <v>78.590999999999994</v>
       </c>
       <c r="W35">
-        <v>-34.799999999999997</v>
+        <v>-17.777999999999999</v>
       </c>
       <c r="X35">
-        <v>-71.7</v>
+        <v>-46.515000000000001</v>
       </c>
       <c r="Y35">
-        <v>50.1</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>27.8</v>
+        <v>-0.48799999999999999</v>
       </c>
       <c r="AA35">
-        <v>94.3</v>
+        <v>49.341999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>42094</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>87.2</v>
+        <v>42.259</v>
       </c>
       <c r="D36">
-        <v>620.6</v>
+        <v>142.839</v>
       </c>
       <c r="E36">
-        <v>245.9</v>
+        <v>60.774999999999999</v>
       </c>
       <c r="F36">
-        <v>283.2</v>
+        <v>128.68899999999999</v>
       </c>
       <c r="G36">
-        <v>577.4</v>
+        <v>209.38499999999999</v>
       </c>
       <c r="H36">
-        <v>5159.3</v>
+        <v>375.79700000000003</v>
       </c>
       <c r="I36">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="J36">
-        <v>916.6</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3645,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>285.8</v>
+        <v>70.712000000000003</v>
       </c>
       <c r="O36">
-        <v>1826.5</v>
+        <v>132.06200000000001</v>
       </c>
       <c r="P36">
-        <v>973.2</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>-184.9</v>
+        <v>-10.369</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>42094</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>3332.8</v>
+        <v>243.73500000000001</v>
       </c>
       <c r="U36">
-        <v>161.30000000000001</v>
+        <v>137.55799999999999</v>
       </c>
       <c r="V36">
-        <v>199.6</v>
+        <v>78.454999999999998</v>
       </c>
       <c r="W36">
-        <v>-34.799999999999997</v>
+        <v>-17.725000000000001</v>
       </c>
       <c r="X36">
-        <v>-334.8</v>
+        <v>-51.064999999999998</v>
       </c>
       <c r="Y36">
-        <v>46.9</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-32.1</v>
+        <v>-30.469000000000001</v>
       </c>
       <c r="AA36">
-        <v>88.3</v>
+        <v>42.259</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>42185</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>106</v>
+        <v>44.845999999999997</v>
       </c>
       <c r="D37">
-        <v>675.4</v>
+        <v>148.72499999999999</v>
       </c>
       <c r="E37">
-        <v>235.5</v>
+        <v>71.033000000000001</v>
       </c>
       <c r="F37">
-        <v>294</v>
+        <v>131.97</v>
       </c>
       <c r="G37">
-        <v>489.5</v>
+        <v>194.619</v>
       </c>
       <c r="H37">
-        <v>5019.3</v>
+        <v>362.10899999999998</v>
       </c>
       <c r="I37">
-        <v>10.3</v>
+        <v>4.883</v>
       </c>
       <c r="J37">
-        <v>867.1</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3728,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>199</v>
+        <v>72.463999999999999</v>
       </c>
       <c r="O37">
-        <v>1690.6</v>
+        <v>135.09200000000001</v>
       </c>
       <c r="P37">
-        <v>923.3</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>-11.3</v>
+        <v>-47.923999999999999</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>42185</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>3328.7</v>
+        <v>227.017</v>
       </c>
       <c r="U37">
-        <v>150</v>
+        <v>89.634</v>
       </c>
       <c r="V37">
-        <v>77.5</v>
+        <v>27.37</v>
       </c>
       <c r="W37">
-        <v>-40.4</v>
+        <v>-17.562999999999999</v>
       </c>
       <c r="X37">
-        <v>-142.5</v>
+        <v>-64.727999999999994</v>
       </c>
       <c r="Y37">
-        <v>47.4</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>62.5</v>
+        <v>-0.46600000000000003</v>
       </c>
       <c r="AA37">
-        <v>106</v>
+        <v>44.844999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>42277</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>86.3</v>
+        <v>67.516000000000005</v>
       </c>
       <c r="D38">
-        <v>598.6</v>
+        <v>187.035</v>
       </c>
       <c r="E38">
-        <v>234.7</v>
+        <v>72.617999999999995</v>
       </c>
       <c r="F38">
-        <v>280.3</v>
+        <v>165.19499999999999</v>
       </c>
       <c r="G38">
-        <v>607.6</v>
+        <v>222.7</v>
       </c>
       <c r="H38">
-        <v>5113.8999999999996</v>
+        <v>397.41899999999998</v>
       </c>
       <c r="I38">
-        <v>21</v>
+        <v>1.9430000000000001</v>
       </c>
       <c r="J38">
-        <v>867.6</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3811,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>281.60000000000002</v>
+        <v>78.662999999999997</v>
       </c>
       <c r="O38">
-        <v>1758.3</v>
+        <v>137.602</v>
       </c>
       <c r="P38">
-        <v>923</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>79.3</v>
+        <v>32.043999999999997</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>42277</v>
       </c>
       <c r="S38">
-        <v>823</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>3355.6</v>
+        <v>259.81700000000001</v>
       </c>
       <c r="U38">
-        <v>229.3</v>
+        <v>121.678</v>
       </c>
       <c r="V38">
-        <v>237.7</v>
+        <v>88.311999999999998</v>
       </c>
       <c r="W38">
-        <v>-40</v>
+        <v>-19.125</v>
       </c>
       <c r="X38">
-        <v>-113.9</v>
+        <v>-41.956000000000003</v>
       </c>
       <c r="Y38">
-        <v>46.7</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-39</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AA38">
-        <v>86.3</v>
+        <v>67.516000000000005</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>42369</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>157.4</v>
+        <v>50.402000000000001</v>
       </c>
       <c r="D39">
-        <v>921.5</v>
+        <v>155.946</v>
       </c>
       <c r="E39">
-        <v>396.5</v>
+        <v>68.216999999999999</v>
       </c>
       <c r="F39">
-        <v>358.3</v>
+        <v>138.11600000000001</v>
       </c>
       <c r="G39">
-        <v>632.1</v>
+        <v>204.11799999999999</v>
       </c>
       <c r="H39">
-        <v>5237.5</v>
+        <v>384.78800000000001</v>
       </c>
       <c r="I39">
-        <v>9.1999999999999993</v>
+        <v>1.762</v>
       </c>
       <c r="J39">
-        <v>868.1</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,78 +3894,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>358.1</v>
+        <v>73.997</v>
       </c>
       <c r="O39">
-        <v>1927.4</v>
+        <v>125.143</v>
       </c>
       <c r="P39">
-        <v>1006</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>-64.099999999999994</v>
+        <v>-19.425000000000001</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>42369</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="T39">
-        <v>3310.1</v>
+        <v>259.64499999999998</v>
       </c>
       <c r="U39">
-        <v>165.2</v>
+        <v>102.253</v>
       </c>
       <c r="V39">
-        <v>163.30000000000001</v>
+        <v>51.140999999999998</v>
       </c>
       <c r="W39">
-        <v>-40</v>
+        <v>-19.018000000000001</v>
       </c>
       <c r="X39">
-        <v>-175.7</v>
+        <v>-53.781999999999996</v>
       </c>
       <c r="Y39">
-        <v>128.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>21.2</v>
+        <v>-4.4669999999999996</v>
       </c>
       <c r="AA39">
-        <v>157.4</v>
+        <v>50.402000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>42460</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>113.6</v>
+        <v>49.4</v>
       </c>
       <c r="D40">
-        <v>868.7</v>
+        <v>170.5</v>
       </c>
       <c r="E40">
-        <v>376.8</v>
+        <v>64.188999999999993</v>
       </c>
       <c r="F40">
-        <v>296.89999999999998</v>
+        <v>143.1</v>
       </c>
       <c r="G40">
-        <v>781.2</v>
+        <v>184.691</v>
       </c>
       <c r="H40">
-        <v>5366.3</v>
+        <v>394.83</v>
       </c>
       <c r="I40">
-        <v>12.2</v>
+        <v>4.1779999999999999</v>
       </c>
       <c r="J40">
-        <v>868.6</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +3977,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>496.5</v>
+        <v>83.353999999999999</v>
       </c>
       <c r="O40">
-        <v>2080</v>
+        <v>134.303</v>
       </c>
       <c r="P40">
-        <v>1016.6</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>44.9</v>
+        <v>5.2</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>42460</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>3286.3</v>
+        <v>260.52699999999999</v>
       </c>
       <c r="U40">
-        <v>210.1</v>
+        <v>107.482</v>
       </c>
       <c r="V40">
-        <v>325</v>
+        <v>97.4</v>
       </c>
       <c r="W40">
-        <v>-39.5</v>
+        <v>-18.899999999999999</v>
       </c>
       <c r="X40">
-        <v>-139.19999999999999</v>
+        <v>-64.3</v>
       </c>
       <c r="Y40">
-        <v>137.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-129</v>
+        <v>-4.7</v>
       </c>
       <c r="AA40">
-        <v>113.6</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>42551</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>109.9</v>
+        <v>51.2</v>
       </c>
       <c r="D41">
-        <v>792.7</v>
+        <v>173.1</v>
       </c>
       <c r="E41">
-        <v>283.3</v>
+        <v>78.180999999999997</v>
       </c>
       <c r="F41">
-        <v>292</v>
+        <v>144.1</v>
       </c>
       <c r="G41">
-        <v>1382.3</v>
+        <v>173.87200000000001</v>
       </c>
       <c r="H41">
-        <v>6076.8</v>
+        <v>406.64400000000001</v>
       </c>
       <c r="I41">
-        <v>15.9</v>
+        <v>1.9390000000000001</v>
       </c>
       <c r="J41">
-        <v>869.1</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4060,1539 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1128.3</v>
+        <v>76.632000000000005</v>
       </c>
       <c r="O41">
-        <v>2732.3</v>
+        <v>128.28100000000001</v>
       </c>
       <c r="P41">
-        <v>1086.7</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>774.5</v>
+        <v>-55.3</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>42551</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>3344.5</v>
+        <v>278.363</v>
       </c>
       <c r="U41">
-        <v>212.7</v>
+        <v>52.192999999999998</v>
       </c>
       <c r="V41">
-        <v>701.1</v>
+        <v>17.5</v>
       </c>
       <c r="W41">
-        <v>-45.8</v>
+        <v>-18.8</v>
       </c>
       <c r="X41">
-        <v>-17.7</v>
+        <v>-36.799999999999997</v>
       </c>
       <c r="Y41">
-        <v>135.6</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>143.69999999999999</v>
+        <v>-19.5</v>
       </c>
       <c r="AA41">
-        <v>109.9</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>42643</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="D42">
+        <v>168.7</v>
+      </c>
+      <c r="E42">
+        <v>68.284000000000006</v>
+      </c>
+      <c r="F42">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="G42">
+        <v>206.583</v>
+      </c>
+      <c r="H42">
+        <v>441.34199999999998</v>
+      </c>
+      <c r="I42">
+        <v>3.0870000000000002</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>81.122</v>
+      </c>
+      <c r="O42">
+        <v>139.17699999999999</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>20.6</v>
+      </c>
+      <c r="R42">
+        <v>42643</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>302.16500000000002</v>
+      </c>
+      <c r="U42">
+        <v>72.759</v>
+      </c>
+      <c r="V42">
+        <v>59.2</v>
+      </c>
+      <c r="W42">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="X42">
+        <v>-25.2</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-0.4</v>
+      </c>
+      <c r="AA42">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>45.4</v>
+      </c>
+      <c r="D43">
+        <v>190.8</v>
+      </c>
+      <c r="E43">
+        <v>76.7</v>
+      </c>
+      <c r="F43">
+        <v>143</v>
+      </c>
+      <c r="G43">
+        <v>235.1</v>
+      </c>
+      <c r="H43">
+        <v>476.7</v>
+      </c>
+      <c r="I43">
+        <v>6.5</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>89.9</v>
+      </c>
+      <c r="O43">
+        <v>146.19999999999999</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>24.5</v>
+      </c>
+      <c r="R43">
+        <v>42735</v>
+      </c>
+      <c r="S43">
+        <v>553</v>
+      </c>
+      <c r="T43">
+        <v>330.5</v>
+      </c>
+      <c r="U43">
+        <v>97.3</v>
+      </c>
+      <c r="V43">
+        <v>55.5</v>
+      </c>
+      <c r="W43">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="X43">
+        <v>-23.9</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0.9</v>
+      </c>
+      <c r="AA43">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>15.5</v>
+      </c>
+      <c r="D44">
+        <v>356.2</v>
+      </c>
+      <c r="E44">
+        <v>233.3</v>
+      </c>
+      <c r="F44">
+        <v>193.4</v>
+      </c>
+      <c r="G44">
+        <v>455.7</v>
+      </c>
+      <c r="H44">
+        <v>5345.1</v>
+      </c>
+      <c r="I44">
+        <v>51.4</v>
+      </c>
+      <c r="J44">
+        <v>1486.7</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>-150</v>
+      </c>
+      <c r="N44">
+        <v>260.89999999999998</v>
+      </c>
+      <c r="O44">
+        <v>2587.1</v>
+      </c>
+      <c r="P44">
+        <v>1486.7</v>
+      </c>
+      <c r="Q44">
+        <v>56</v>
+      </c>
+      <c r="R44">
+        <v>42825</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2758</v>
+      </c>
+      <c r="U44">
+        <v>153.30000000000001</v>
+      </c>
+      <c r="V44">
+        <v>-17.7</v>
+      </c>
+      <c r="W44">
+        <v>-28.3</v>
+      </c>
+      <c r="X44">
+        <v>1457.7</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>24.7</v>
+      </c>
+      <c r="AA44">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>68.3</v>
+      </c>
+      <c r="D45">
+        <v>640.79999999999995</v>
+      </c>
+      <c r="E45">
+        <v>231.3</v>
+      </c>
+      <c r="F45">
+        <v>266.89999999999998</v>
+      </c>
+      <c r="G45">
+        <v>519.70000000000005</v>
+      </c>
+      <c r="H45">
+        <v>5395.6</v>
+      </c>
+      <c r="I45">
+        <v>54.9</v>
+      </c>
+      <c r="J45">
+        <v>1411.3</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>376.3</v>
+      </c>
+      <c r="O45">
+        <v>2566.3000000000002</v>
+      </c>
+      <c r="P45">
+        <v>1411.3</v>
+      </c>
+      <c r="Q45">
+        <v>-4.7</v>
+      </c>
+      <c r="R45">
+        <v>42916</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>2829.3</v>
+      </c>
+      <c r="U45">
+        <v>148.6</v>
+      </c>
+      <c r="V45">
+        <v>189.8</v>
+      </c>
+      <c r="W45">
+        <v>-28.4</v>
+      </c>
+      <c r="X45">
+        <v>-111.2</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-68.900000000000006</v>
+      </c>
+      <c r="AA45">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>60.5</v>
+      </c>
+      <c r="D46">
+        <v>611.4</v>
+      </c>
+      <c r="E46">
+        <v>195.8</v>
+      </c>
+      <c r="F46">
+        <v>269.7</v>
+      </c>
+      <c r="G46">
+        <v>374.3</v>
+      </c>
+      <c r="H46">
+        <v>5228.1000000000004</v>
+      </c>
+      <c r="I46">
+        <v>38.9</v>
+      </c>
+      <c r="J46">
+        <v>1312.4</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>238</v>
+      </c>
+      <c r="O46">
+        <v>2340.8000000000002</v>
+      </c>
+      <c r="P46">
+        <v>1312.4</v>
+      </c>
+      <c r="Q46">
+        <v>-23.8</v>
+      </c>
+      <c r="R46">
+        <v>43008</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>2887.3</v>
+      </c>
+      <c r="U46">
+        <v>124.8</v>
+      </c>
+      <c r="V46">
+        <v>6.8</v>
+      </c>
+      <c r="W46">
+        <v>-30.7</v>
+      </c>
+      <c r="X46">
+        <v>-132.19999999999999</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>106.1</v>
+      </c>
+      <c r="AA46">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>257.39999999999998</v>
+      </c>
+      <c r="D47">
+        <v>620.70000000000005</v>
+      </c>
+      <c r="E47">
+        <v>217.3</v>
+      </c>
+      <c r="F47">
+        <v>265.60000000000002</v>
+      </c>
+      <c r="G47">
+        <v>434.7</v>
+      </c>
+      <c r="H47">
+        <v>5265.7</v>
+      </c>
+      <c r="I47">
+        <v>43.2</v>
+      </c>
+      <c r="J47">
+        <v>1237.9000000000001</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>334</v>
+      </c>
+      <c r="O47">
+        <v>2145.6999999999998</v>
+      </c>
+      <c r="P47">
+        <v>1237.9000000000001</v>
+      </c>
+      <c r="Q47">
+        <v>18.7</v>
+      </c>
+      <c r="R47">
+        <v>43100</v>
+      </c>
+      <c r="S47">
+        <v>889</v>
+      </c>
+      <c r="T47">
+        <v>3120</v>
+      </c>
+      <c r="U47">
+        <v>143.5</v>
+      </c>
+      <c r="V47">
+        <v>195.5</v>
+      </c>
+      <c r="W47">
+        <v>-30.7</v>
+      </c>
+      <c r="X47">
+        <v>-114.6</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-46.8</v>
+      </c>
+      <c r="AA47">
+        <v>257.39999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>118.4</v>
+      </c>
+      <c r="D48">
+        <v>777.7</v>
+      </c>
+      <c r="E48">
+        <v>268.39999999999998</v>
+      </c>
+      <c r="F48">
+        <v>328.5</v>
+      </c>
+      <c r="G48">
+        <v>512.29999999999995</v>
+      </c>
+      <c r="H48">
+        <v>5328.2</v>
+      </c>
+      <c r="I48">
+        <v>48.7</v>
+      </c>
+      <c r="J48">
+        <v>1213.4000000000001</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>-325</v>
+      </c>
+      <c r="N48">
+        <v>384.3</v>
+      </c>
+      <c r="O48">
+        <v>2143.6</v>
+      </c>
+      <c r="P48">
+        <v>1213.4000000000001</v>
+      </c>
+      <c r="Q48">
+        <v>22.8</v>
+      </c>
+      <c r="R48">
+        <v>43190</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>3184.6</v>
+      </c>
+      <c r="U48">
+        <v>166.3</v>
+      </c>
+      <c r="V48">
+        <v>163.5</v>
+      </c>
+      <c r="W48">
+        <v>-30.6</v>
+      </c>
+      <c r="X48">
+        <v>-114.2</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="AA48">
+        <v>118.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>83.3</v>
+      </c>
+      <c r="D49">
+        <v>667.5</v>
+      </c>
+      <c r="E49">
+        <v>252.2</v>
+      </c>
+      <c r="F49">
+        <v>283.5</v>
+      </c>
+      <c r="G49">
+        <v>584</v>
+      </c>
+      <c r="H49">
+        <v>5316.9</v>
+      </c>
+      <c r="I49">
+        <v>11.1</v>
+      </c>
+      <c r="J49">
+        <v>914.6</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>679.9</v>
+      </c>
+      <c r="O49">
+        <v>2157.9</v>
+      </c>
+      <c r="P49">
+        <v>1214.0999999999999</v>
+      </c>
+      <c r="Q49">
+        <v>-26.3</v>
+      </c>
+      <c r="R49">
+        <v>43281</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>3159</v>
+      </c>
+      <c r="U49">
+        <v>140</v>
+      </c>
+      <c r="V49">
+        <v>185.8</v>
+      </c>
+      <c r="W49">
+        <v>-30.4</v>
+      </c>
+      <c r="X49">
+        <v>-135.6</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-66.7</v>
+      </c>
+      <c r="AA49">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>86</v>
+      </c>
+      <c r="D50">
+        <v>575.9</v>
+      </c>
+      <c r="E50">
+        <v>221.9</v>
+      </c>
+      <c r="F50">
+        <v>270.5</v>
+      </c>
+      <c r="G50">
+        <v>435.5</v>
+      </c>
+      <c r="H50">
+        <v>5119.5</v>
+      </c>
+      <c r="I50">
+        <v>6.3</v>
+      </c>
+      <c r="J50">
+        <v>915.1</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>478.9</v>
+      </c>
+      <c r="O50">
+        <v>1958.2</v>
+      </c>
+      <c r="P50">
+        <v>1214.7</v>
+      </c>
+      <c r="Q50">
+        <v>-3.2</v>
+      </c>
+      <c r="R50">
+        <v>43373</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>3161.3</v>
+      </c>
+      <c r="U50">
+        <v>136.80000000000001</v>
+      </c>
+      <c r="V50">
+        <v>-41.2</v>
+      </c>
+      <c r="W50">
+        <v>-34.6</v>
+      </c>
+      <c r="X50">
+        <v>-82.5</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>130.5</v>
+      </c>
+      <c r="AA50">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>138.80000000000001</v>
+      </c>
+      <c r="D51">
+        <v>747.7</v>
+      </c>
+      <c r="E51">
+        <v>287.3</v>
+      </c>
+      <c r="F51">
+        <v>334.4</v>
+      </c>
+      <c r="G51">
+        <v>683.7</v>
+      </c>
+      <c r="H51">
+        <v>5321</v>
+      </c>
+      <c r="I51">
+        <v>12.8</v>
+      </c>
+      <c r="J51">
+        <v>915.6</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>595.9</v>
+      </c>
+      <c r="O51">
+        <v>2070.6</v>
+      </c>
+      <c r="P51">
+        <v>1215.4000000000001</v>
+      </c>
+      <c r="Q51">
+        <v>138.30000000000001</v>
+      </c>
+      <c r="R51">
+        <v>43465</v>
+      </c>
+      <c r="S51">
+        <v>842</v>
+      </c>
+      <c r="T51">
+        <v>3250.4</v>
+      </c>
+      <c r="U51">
+        <v>275.10000000000002</v>
+      </c>
+      <c r="V51">
+        <v>226.6</v>
+      </c>
+      <c r="W51">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="X51">
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-35</v>
+      </c>
+      <c r="AA51">
+        <v>138.80000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>95.4</v>
+      </c>
+      <c r="D52">
+        <v>601.5</v>
+      </c>
+      <c r="E52">
+        <v>251</v>
+      </c>
+      <c r="F52">
+        <v>279.39999999999998</v>
+      </c>
+      <c r="G52">
+        <v>683.2</v>
+      </c>
+      <c r="H52">
+        <v>5330.4</v>
+      </c>
+      <c r="I52">
+        <v>4.3</v>
+      </c>
+      <c r="J52">
+        <v>916.1</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>511.4</v>
+      </c>
+      <c r="O52">
+        <v>2035.6</v>
+      </c>
+      <c r="P52">
+        <v>1275</v>
+      </c>
+      <c r="Q52">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="R52">
+        <v>43555</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>3294.8</v>
+      </c>
+      <c r="U52">
+        <v>346.2</v>
+      </c>
+      <c r="V52">
+        <v>118</v>
+      </c>
+      <c r="W52">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="X52">
+        <v>-71.7</v>
+      </c>
+      <c r="Y52">
+        <v>50.1</v>
+      </c>
+      <c r="Z52">
+        <v>27.8</v>
+      </c>
+      <c r="AA52">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>87.2</v>
+      </c>
+      <c r="D53">
+        <v>620.6</v>
+      </c>
+      <c r="E53">
+        <v>245.9</v>
+      </c>
+      <c r="F53">
+        <v>283.2</v>
+      </c>
+      <c r="G53">
+        <v>577.4</v>
+      </c>
+      <c r="H53">
+        <v>5159.3</v>
+      </c>
+      <c r="I53">
+        <v>9</v>
+      </c>
+      <c r="J53">
+        <v>916.6</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>285.8</v>
+      </c>
+      <c r="O53">
+        <v>1826.5</v>
+      </c>
+      <c r="P53">
+        <v>973.2</v>
+      </c>
+      <c r="Q53">
+        <v>-184.9</v>
+      </c>
+      <c r="R53">
+        <v>43646</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>3332.8</v>
+      </c>
+      <c r="U53">
+        <v>161.30000000000001</v>
+      </c>
+      <c r="V53">
+        <v>199.6</v>
+      </c>
+      <c r="W53">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="X53">
+        <v>-334.8</v>
+      </c>
+      <c r="Y53">
+        <v>46.9</v>
+      </c>
+      <c r="Z53">
+        <v>-32.1</v>
+      </c>
+      <c r="AA53">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>106</v>
+      </c>
+      <c r="D54">
+        <v>675.4</v>
+      </c>
+      <c r="E54">
+        <v>235.5</v>
+      </c>
+      <c r="F54">
+        <v>294</v>
+      </c>
+      <c r="G54">
+        <v>489.5</v>
+      </c>
+      <c r="H54">
+        <v>5019.3</v>
+      </c>
+      <c r="I54">
+        <v>10.3</v>
+      </c>
+      <c r="J54">
+        <v>867.1</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>199</v>
+      </c>
+      <c r="O54">
+        <v>1690.6</v>
+      </c>
+      <c r="P54">
+        <v>923.3</v>
+      </c>
+      <c r="Q54">
+        <v>-11.3</v>
+      </c>
+      <c r="R54">
+        <v>43738</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>3328.7</v>
+      </c>
+      <c r="U54">
+        <v>150</v>
+      </c>
+      <c r="V54">
+        <v>77.5</v>
+      </c>
+      <c r="W54">
+        <v>-40.4</v>
+      </c>
+      <c r="X54">
+        <v>-142.5</v>
+      </c>
+      <c r="Y54">
+        <v>47.4</v>
+      </c>
+      <c r="Z54">
+        <v>62.5</v>
+      </c>
+      <c r="AA54">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>86.3</v>
+      </c>
+      <c r="D55">
+        <v>598.6</v>
+      </c>
+      <c r="E55">
+        <v>234.7</v>
+      </c>
+      <c r="F55">
+        <v>280.3</v>
+      </c>
+      <c r="G55">
+        <v>607.6</v>
+      </c>
+      <c r="H55">
+        <v>5113.8999999999996</v>
+      </c>
+      <c r="I55">
+        <v>21</v>
+      </c>
+      <c r="J55">
+        <v>867.6</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>281.60000000000002</v>
+      </c>
+      <c r="O55">
+        <v>1758.3</v>
+      </c>
+      <c r="P55">
+        <v>923</v>
+      </c>
+      <c r="Q55">
+        <v>79.3</v>
+      </c>
+      <c r="R55">
+        <v>43830</v>
+      </c>
+      <c r="S55">
+        <v>823</v>
+      </c>
+      <c r="T55">
+        <v>3355.6</v>
+      </c>
+      <c r="U55">
+        <v>229.3</v>
+      </c>
+      <c r="V55">
+        <v>237.7</v>
+      </c>
+      <c r="W55">
+        <v>-40</v>
+      </c>
+      <c r="X55">
+        <v>-113.9</v>
+      </c>
+      <c r="Y55">
+        <v>46.7</v>
+      </c>
+      <c r="Z55">
+        <v>-39</v>
+      </c>
+      <c r="AA55">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>157.4</v>
+      </c>
+      <c r="D56">
+        <v>921.5</v>
+      </c>
+      <c r="E56">
+        <v>396.5</v>
+      </c>
+      <c r="F56">
+        <v>358.3</v>
+      </c>
+      <c r="G56">
+        <v>632.1</v>
+      </c>
+      <c r="H56">
+        <v>5237.5</v>
+      </c>
+      <c r="I56">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J56">
+        <v>868.1</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>358.1</v>
+      </c>
+      <c r="O56">
+        <v>1927.4</v>
+      </c>
+      <c r="P56">
+        <v>1006</v>
+      </c>
+      <c r="Q56">
+        <v>-64.099999999999994</v>
+      </c>
+      <c r="R56">
+        <v>43921</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>3310.1</v>
+      </c>
+      <c r="U56">
+        <v>165.2</v>
+      </c>
+      <c r="V56">
+        <v>163.30000000000001</v>
+      </c>
+      <c r="W56">
+        <v>-40</v>
+      </c>
+      <c r="X56">
+        <v>-175.7</v>
+      </c>
+      <c r="Y56">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="Z56">
+        <v>21.2</v>
+      </c>
+      <c r="AA56">
+        <v>157.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>113.6</v>
+      </c>
+      <c r="D57">
+        <v>868.7</v>
+      </c>
+      <c r="E57">
+        <v>376.8</v>
+      </c>
+      <c r="F57">
+        <v>296.89999999999998</v>
+      </c>
+      <c r="G57">
+        <v>781.2</v>
+      </c>
+      <c r="H57">
+        <v>5366.3</v>
+      </c>
+      <c r="I57">
+        <v>12.2</v>
+      </c>
+      <c r="J57">
+        <v>868.6</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>496.5</v>
+      </c>
+      <c r="O57">
+        <v>2080</v>
+      </c>
+      <c r="P57">
+        <v>1016.6</v>
+      </c>
+      <c r="Q57">
+        <v>44.9</v>
+      </c>
+      <c r="R57">
+        <v>44012</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>3286.3</v>
+      </c>
+      <c r="U57">
+        <v>210.1</v>
+      </c>
+      <c r="V57">
+        <v>325</v>
+      </c>
+      <c r="W57">
+        <v>-39.5</v>
+      </c>
+      <c r="X57">
+        <v>-139.19999999999999</v>
+      </c>
+      <c r="Y57">
+        <v>137.30000000000001</v>
+      </c>
+      <c r="Z57">
+        <v>-129</v>
+      </c>
+      <c r="AA57">
+        <v>113.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>109.9</v>
+      </c>
+      <c r="D58">
+        <v>792.7</v>
+      </c>
+      <c r="E58">
+        <v>283.3</v>
+      </c>
+      <c r="F58">
+        <v>292</v>
+      </c>
+      <c r="G58">
+        <v>1382.3</v>
+      </c>
+      <c r="H58">
+        <v>6076.8</v>
+      </c>
+      <c r="I58">
+        <v>15.9</v>
+      </c>
+      <c r="J58">
+        <v>869.1</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1128.3</v>
+      </c>
+      <c r="O58">
+        <v>2732.3</v>
+      </c>
+      <c r="P58">
+        <v>1086.7</v>
+      </c>
+      <c r="Q58">
+        <v>774.5</v>
+      </c>
+      <c r="R58">
+        <v>44104</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>3344.5</v>
+      </c>
+      <c r="U58">
+        <v>212.7</v>
+      </c>
+      <c r="V58">
+        <v>701.1</v>
+      </c>
+      <c r="W58">
+        <v>-45.8</v>
+      </c>
+      <c r="X58">
+        <v>-17.7</v>
+      </c>
+      <c r="Y58">
+        <v>135.6</v>
+      </c>
+      <c r="Z58">
+        <v>143.69999999999999</v>
+      </c>
+      <c r="AA58">
+        <v>109.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
         <v>87.3</v>
       </c>
-      <c r="D42">
+      <c r="D59">
         <v>844.2</v>
       </c>
-      <c r="E42">
+      <c r="E59">
         <v>337.3</v>
       </c>
-      <c r="F42">
+      <c r="F59">
         <v>307.10000000000002</v>
       </c>
-      <c r="G42">
+      <c r="G59">
         <v>1566.8</v>
       </c>
-      <c r="H42">
+      <c r="H59">
         <v>6516.5</v>
       </c>
-      <c r="I42">
+      <c r="I59">
         <v>28.5</v>
       </c>
-      <c r="J42">
+      <c r="J59">
         <v>1135.2</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
         <v>1313.3</v>
       </c>
-      <c r="O42">
+      <c r="O59">
         <v>3167.6</v>
       </c>
-      <c r="P42">
+      <c r="P59">
         <v>1348.5</v>
       </c>
-      <c r="Q42">
+      <c r="Q59">
         <v>72.900000000000006</v>
       </c>
-      <c r="R42">
+      <c r="R59">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S59">
         <v>1010</v>
       </c>
-      <c r="T42">
+      <c r="T59">
         <v>3348.9</v>
       </c>
-      <c r="U42">
+      <c r="U59">
         <v>245.4</v>
       </c>
-      <c r="V42">
+      <c r="V59">
         <v>269.39999999999998</v>
       </c>
-      <c r="W42">
+      <c r="W59">
         <v>-45.3</v>
       </c>
-      <c r="X42">
+      <c r="X59">
         <v>130.9</v>
       </c>
-      <c r="Y42">
+      <c r="Y59">
         <v>132.1</v>
       </c>
-      <c r="Z42">
+      <c r="Z59">
         <v>-68</v>
       </c>
-      <c r="AA42">
+      <c r="AA59">
         <v>87.3</v>
       </c>
     </row>
